--- a/Data/results_and_targets.xlsx
+++ b/Data/results_and_targets.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S91"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -91,7 +91,7 @@
     <col min="16" max="16" bestFit="true" customWidth="true" width="8.5898876404"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="10.7898876404"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="11.8898876404"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.9898876404"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="9.6898876404"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -193,79 +193,79 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Southwest</t>
         </is>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>1.01</v>
+        <v>0.75</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>145</v>
+        <v>283</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>29</v>
+        <v>48.11</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>29.29</v>
+        <v>36.0825</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>116</v>
+        <v>234.89</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>117.16</v>
+        <v>176.1675</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>120.35</v>
+        <v>280.17</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>19.72</v>
+        <v>34.1581</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>25.7752</v>
+        <v>34.6392</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>91.3848</v>
+        <v>142.632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.83</v>
+        <v>0.7</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.99</v>
+        <v>0.84</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2022</v>
@@ -277,58 +277,58 @@
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>46.17</v>
+        <v>24.5</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>51.7104</v>
+        <v>22.295</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>196.83</v>
+        <v>220.5</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>220.4496</v>
+        <v>200.655</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>260.01</v>
+        <v>281.75</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>38.3211</v>
+        <v>17.15</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>47.056464</v>
+        <v>19.6196</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>438.694704</v>
+        <v>144.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>2.03</v>
+        <v>0.51</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2022</v>
@@ -340,65 +340,65 @@
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>Southwest</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.18</v>
+        <v>0.56</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>1.09</v>
+        <v>0.99</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>5.52</v>
+        <v>29.28</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>6.0168</v>
+        <v>28.9872</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>40.48</v>
+        <v>92.72</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>44.1232</v>
+        <v>91.7928</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>36.34</v>
+        <v>95.16</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>7.2864</v>
+        <v>33.9648</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>4.753272</v>
+        <v>24.63912</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>89.570096</v>
+        <v>43.554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>1.19</v>
+        <v>0.93</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.81</v>
+        <v>0.9</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1.65</v>
+        <v>0.24</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
@@ -407,54 +407,54 @@
         </is>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.98</v>
+        <v>1.11</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>251</v>
+        <v>50</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>62.75</v>
+        <v>10.5</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>61.495</v>
+        <v>11.655</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>188.25</v>
+        <v>39.5</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>184.485</v>
+        <v>43.845</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>298.69</v>
+        <v>46.5</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>62.75</v>
+        <v>14.175</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>49.81095</v>
+        <v>10.4895</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>304.40025</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>0.92</v>
+        <v>1.01</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.93</v>
+        <v>0.48</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2021</v>
@@ -466,128 +466,128 @@
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>39.6</v>
+        <v>21.76</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>35.64</v>
+        <v>19.1488</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>140.4</v>
+        <v>250.24</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>126.36</v>
+        <v>220.2112</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>165.6</v>
+        <v>274.72</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>26.532</v>
+        <v>15.0144</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>27.4428</v>
+        <v>14.936064</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>117.5148</v>
+        <v>91.392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>0.98</v>
+        <v>1.19</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="C7" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>Southeast</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0.88</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>Southeast</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0.89</v>
-      </c>
       <c r="K7" s="0" t="n">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>26.28</v>
+        <v>2.25</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>23.3892</v>
+        <v>1.98</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>119.72</v>
+        <v>22.75</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>106.5508</v>
+        <v>20.02</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>143.08</v>
+        <v>29.75</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>27.8568</v>
+        <v>2.7675</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>20.582496</v>
+        <v>1.9206</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>106.5508</v>
+        <v>15.575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>0.94</v>
+        <v>1.17</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.81</v>
+        <v>0.62</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
@@ -596,57 +596,57 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.11</v>
+        <v>0.43</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>1.12</v>
+        <v>0.9</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>23.44</v>
+        <v>28.6</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>26.2528</v>
+        <v>25.74</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>269.56</v>
+        <v>231.4</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>301.9072</v>
+        <v>208.26</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>275.42</v>
+        <v>304.2</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>25.784</v>
+        <v>30.03</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>21.264768</v>
+        <v>23.6808</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>244.544832</v>
+        <v>112.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.74</v>
+        <v>1.4</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.6</v>
+        <v>1.04</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
@@ -655,128 +655,128 @@
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>Northern</t>
+          <t>Southwest</t>
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>17</v>
+        <v>282</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>3.06</v>
+        <v>64.86</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>2.907</v>
+        <v>51.2394</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>13.94</v>
+        <v>217.14</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>13.243</v>
+        <v>171.5406</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>12.92</v>
+        <v>236.88</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>2.2644</v>
+        <v>90.804</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>2.58723</v>
+        <v>43.041096</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>7.9458</v>
+        <v>205.296</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.72</v>
+        <v>1.27</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1.48</v>
+        <v>0.34</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1.5</v>
+        <v>10.45</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>1.575</v>
+        <v>10.659</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>23.5</v>
+        <v>84.55</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>24.675</v>
+        <v>86.241</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>24</v>
+        <v>95.95</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>1.08</v>
+        <v>13.2715</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>1.386</v>
+        <v>8.42061</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>36.519</v>
+        <v>22.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>0.96</v>
+        <v>1.2</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1.31</v>
+        <v>0.77</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.46</v>
+        <v>0.83</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
@@ -785,120 +785,120 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.42</v>
+        <v>0.69</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>26.88</v>
+        <v>8</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>24.192</v>
+        <v>7.52</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>101.12</v>
+        <v>32</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>91.008</v>
+        <v>30.08</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>122.88</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>35.2128</v>
+        <v>6.16</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>20.80512</v>
+        <v>6.8432</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>41.86368</v>
+        <v>23.24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>1.19</v>
+        <v>0.96</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.89</v>
+        <v>1.08</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.96</v>
+        <v>0.29</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>Northern</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>12.24</v>
+        <v>24.6</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>12.4848</v>
+        <v>20.418</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>55.76</v>
+        <v>180.4</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>56.8752</v>
+        <v>149.732</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>80.92</v>
+        <v>196.8</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>10.8936</v>
+        <v>26.568</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>11.86056</v>
+        <v>16.94694</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>111.475392</v>
+        <v>41.615</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>0.82</v>
+        <v>1.11</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
@@ -911,61 +911,61 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>31.85</v>
+        <v>9.88</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>28.028</v>
+        <v>9.5836</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>213.15</v>
+        <v>42.12</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>187.572</v>
+        <v>40.8564</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>200.9</v>
+        <v>57.72</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>20.384</v>
+        <v>6.422</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>23.8238</v>
+        <v>8.433568</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>148.18188</v>
+        <v>26.572</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1.81</v>
+        <v>0.29</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
@@ -974,57 +974,57 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.16</v>
+        <v>0.07</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>47.84</v>
+        <v>19.95</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>48.7968</v>
+        <v>16.5585</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>251.16</v>
+        <v>265.05</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>256.1832</v>
+        <v>219.9915</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>319.93</v>
+        <v>330.6</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>62.192</v>
+        <v>26.1345</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>39.525408</v>
+        <v>14.737065</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>463.691592</v>
+        <v>57.855</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>0.77</v>
+        <v>1.18</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1.27</v>
+        <v>0.64</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.55</v>
+        <v>0.74</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
@@ -1033,61 +1033,61 @@
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>Eastern</t>
+          <t>Northern</t>
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>1.12</v>
+        <v>0.73</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>45.9</v>
+        <v>6.6</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>51.408</v>
+        <v>4.818</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>224.1</v>
+        <v>26.4</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>250.992</v>
+        <v>19.272</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>207.9</v>
+        <v>38.94</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>58.293</v>
+        <v>4.224</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>42.66864</v>
+        <v>4.38438</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>138.0456</v>
+        <v>17.094</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.48</v>
+        <v>0.94</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
@@ -1096,61 +1096,61 @@
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>Eastern</t>
+          <t>Southwest</t>
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.46</v>
+        <v>0.13</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>11.52</v>
+        <v>24.2</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>12.3264</v>
+        <v>24.442</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>180.48</v>
+        <v>217.8</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>193.1136</v>
+        <v>219.978</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>188.16</v>
+        <v>261.36</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>15.4368</v>
+        <v>30.008</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>11.833344</v>
+        <v>21.02012</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>92.694528</v>
+        <v>159.236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>1.19</v>
+        <v>0.83</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1.33</v>
+        <v>0.68</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.96</v>
+        <v>0.81</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1.35</v>
+        <v>0.44</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
@@ -1159,58 +1159,58 @@
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>Eastern</t>
+          <t>Southwest</t>
         </is>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>1.03</v>
+        <v>0.83</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>7.9</v>
+        <v>13.9</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>8.137</v>
+        <v>11.537</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>71.1</v>
+        <v>125.1</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>73.233</v>
+        <v>103.833</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>94.01</v>
+        <v>115.37</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>10.507</v>
+        <v>9.452</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>7.81152</v>
+        <v>9.34497</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>98.86455</v>
+        <v>42.812</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>0.83</v>
+        <v>1.18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1.52</v>
+        <v>0.3</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>2022</v>
@@ -1222,58 +1222,58 @@
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>Northern</t>
+          <t>Southwest</t>
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0.93</v>
+        <v>1.02</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>29.5</v>
+        <v>38.5</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>27.435</v>
+        <v>39.27</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>265.5</v>
+        <v>236.5</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>246.915</v>
+        <v>241.23</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>244.85</v>
+        <v>324.5</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>19.765</v>
+        <v>28.49</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>20.8506</v>
+        <v>36.1284</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>375.3108</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>0.85</v>
+        <v>0.94</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.61</v>
+        <v>0.87</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>2022</v>
@@ -1285,61 +1285,61 @@
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.39</v>
+        <v>0.64</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>13.41</v>
+        <v>49.4</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>13.1418</v>
+        <v>39.026</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>135.59</v>
+        <v>210.6</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>132.8782</v>
+        <v>166.374</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>126.65</v>
+        <v>244.4</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>14.4828</v>
+        <v>49.894</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>10.776276</v>
+        <v>29.2695</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>81.055702</v>
+        <v>158.34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1.09</v>
+        <v>0.73</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
@@ -1348,44 +1348,44 @@
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.12</v>
+        <v>0.67</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>272</v>
+        <v>129</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>27.2</v>
+        <v>28.38</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>23.936</v>
+        <v>23.8392</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>244.8</v>
+        <v>100.62</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>215.424</v>
+        <v>84.5208</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>304.64</v>
+        <v>109.65</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>29.648</v>
+        <v>20.7174</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>20.82432</v>
+        <v>20.501712</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>288.66816</v>
+        <v>107.457</v>
       </c>
     </row>
     <row r="21">
@@ -1393,13 +1393,13 @@
         <v>1.11</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1.07</v>
+        <v>1.39</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1.86</v>
+        <v>0.43</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>2022</v>
@@ -1415,120 +1415,120 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>1.09</v>
+        <v>0.9</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>48.24</v>
+        <v>30.4</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>52.5816</v>
+        <v>27.36</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>219.76</v>
+        <v>159.6</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>239.5384</v>
+        <v>143.64</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>297.48</v>
+        <v>210.9</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>51.6168</v>
+        <v>42.256</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>41.013648</v>
+        <v>22.7088</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>445.541424</v>
+        <v>57.19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1.39</v>
+        <v>0.64</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>2.13</v>
+        <v>0.25</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>Northern</t>
+          <t>Eastern</t>
         </is>
       </c>
       <c r="H22" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I22" s="0" t="n">
         <v>0.17</v>
       </c>
-      <c r="I22" s="0" t="n">
-        <v>0.42</v>
-      </c>
       <c r="J22" s="0" t="n">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>35.02</v>
+        <v>23.25</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>24.514</v>
+        <v>17.67</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>170.98</v>
+        <v>131.75</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>119.686</v>
+        <v>100.13</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>224.54</v>
+        <v>170.5</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>48.6778</v>
+        <v>14.88</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>21.08204</v>
+        <v>13.9593</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>254.93118</v>
+        <v>27.125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>0.78</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0.81</v>
-      </c>
       <c r="D23" s="0" t="n">
-        <v>2.16</v>
+        <v>0.68</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
@@ -1537,65 +1537,65 @@
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>Southwest</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.48</v>
+        <v>0.11</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>46.83</v>
+        <v>26.82</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>37.9323</v>
+        <v>21.456</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>176.17</v>
+        <v>122.18</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>142.6977</v>
+        <v>97.744</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>173.94</v>
+        <v>178.8</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>60.879</v>
+        <v>26.5518</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>30.725163</v>
+        <v>16.73568</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>308.227032</v>
+        <v>70.924</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>1.16</v>
+        <v>0.81</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1.42</v>
+        <v>1.07</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G24" s="0" t="inlineStr">
@@ -1604,117 +1604,117 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.28</v>
+        <v>0.52</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>31.44</v>
+        <v>2.97</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>29.868</v>
+        <v>2.4354</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>99.56</v>
+        <v>30.03</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>94.582</v>
+        <v>24.6246</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>151.96</v>
+        <v>26.73</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>31.44</v>
+        <v>3.9798</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>22.69968</v>
+        <v>2.386692</v>
       </c>
       <c r="S24" s="0" t="n">
-        <v>134.30644</v>
+        <v>24.717</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>0.78</v>
+        <v>0.99</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1.37</v>
+        <v>0.89</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>2.12</v>
+        <v>1.14</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>Southwest</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>60.75</v>
+        <v>26.52</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>51.03</v>
+        <v>24.3984</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>182.25</v>
+        <v>177.48</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>153.09</v>
+        <v>163.2816</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>189.54</v>
+        <v>201.96</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>83.2275</v>
+        <v>23.6028</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>47.9682</v>
+        <v>22.202544</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>324.5508</v>
+        <v>162.792</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>1.04</v>
+        <v>0.78</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.61</v>
+        <v>0.7</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>2021</v>
@@ -1726,124 +1726,124 @@
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>Northern</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.91</v>
+        <v>1.07</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>7.28</v>
+        <v>4.494</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>152</v>
+        <v>16.8</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>138.32</v>
+        <v>17.976</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>166.4</v>
+        <v>16.38</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>7.92</v>
+        <v>3.36</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>6.7704</v>
+        <v>3.73002</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>84.3752</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.94</v>
+        <v>0.87</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.42</v>
+        <v>0.78</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>Northern</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>0.21</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>58</v>
+        <v>263</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>3.48</v>
+        <v>18.41</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>3.48</v>
+        <v>18.0418</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>54.52</v>
+        <v>244.59</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>54.52</v>
+        <v>239.6982</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>61.48</v>
+        <v>315.6</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>4.002</v>
+        <v>19.1464</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>3.2712</v>
+        <v>15.696366</v>
       </c>
       <c r="S27" s="0" t="n">
-        <v>22.8984</v>
+        <v>143.598</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>1.09</v>
+        <v>0.85</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>2.13</v>
+        <v>0.53</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
@@ -1856,61 +1856,61 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>37.92</v>
+        <v>33.12</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>36.4032</v>
+        <v>33.4512</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>120.08</v>
+        <v>173.88</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>115.2768</v>
+        <v>175.6188</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>172.22</v>
+        <v>175.95</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>47.0208</v>
+        <v>44.0496</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>30.214656</v>
+        <v>27.429984</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>245.539584</v>
+        <v>76.797</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1.48</v>
+        <v>0.39</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G29" s="0" t="inlineStr">
@@ -1919,117 +1919,117 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.29</v>
+        <v>0.46</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>24.2</v>
+        <v>55.43</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>17.908</v>
+        <v>42.1268</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>96.8</v>
+        <v>185.57</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>71.632</v>
+        <v>141.0332</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>104.06</v>
+        <v>241</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>25.652</v>
+        <v>48.7784</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>15.93812</v>
+        <v>34.122708</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>106.01536</v>
+        <v>65.793</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1.35</v>
+        <v>0.27</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Southwest</t>
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>21.76</v>
+        <v>30.48</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>23.2832</v>
+        <v>31.3944</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>106.24</v>
+        <v>96.52</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>113.6768</v>
+        <v>99.4156</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>144.64</v>
+        <v>118.11</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>16.5376</v>
+        <v>24.9936</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>17.928064</v>
+        <v>26.999184</v>
       </c>
       <c r="S30" s="0" t="n">
-        <v>153.46368</v>
+        <v>24.003</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1.07</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1.73</v>
+        <v>0.97</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>2021</v>
@@ -2041,61 +2041,61 @@
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Southwest</t>
         </is>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.12</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>28.8</v>
+        <v>4.44</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>31.968</v>
+        <v>3.9516</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>211.2</v>
+        <v>32.56</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>234.432</v>
+        <v>28.9784</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>204</v>
+        <v>35.15</v>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>30.816</v>
+        <v>4.7508</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>30.3696</v>
+        <v>3.003216</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>405.56736</v>
+        <v>25.123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>1.02</v>
+        <v>0.94</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1.34</v>
+        <v>1.05</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
@@ -2108,54 +2108,54 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.07</v>
+        <v>0.2</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.85</v>
+        <v>1.1</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>1.89</v>
+        <v>35.4</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>1.6065</v>
+        <v>38.94</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>25.11</v>
+        <v>141.6</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>21.3435</v>
+        <v>155.76</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>27.54</v>
+        <v>166.38</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>2.5326</v>
+        <v>37.17</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>1.558305</v>
+        <v>29.5944</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>17.92854</v>
+        <v>111.51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.64</v>
+        <v>0.81</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.96</v>
+        <v>0.55</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>2021</v>
@@ -2167,124 +2167,124 @@
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
-          <t>Southwest</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>6.37</v>
+        <v>12.74</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>5.3508</v>
+        <v>12.74</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>42.63</v>
+        <v>78.26</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>35.8092</v>
+        <v>78.26</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>45.08</v>
+        <v>77.35</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>4.0768</v>
+        <v>10.3194</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>4.54818</v>
+        <v>11.8482</v>
       </c>
       <c r="S33" s="0" t="n">
-        <v>34.376832</v>
+        <v>35.035</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>2.12</v>
+        <v>0.96</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
-          <t>Southwest</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.24</v>
+        <v>0.62</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>7.15</v>
+        <v>11.75</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>7.007</v>
+        <v>9.635</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>57.85</v>
+        <v>223.25</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>56.693</v>
+        <v>183.065</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>60.45</v>
+        <v>209.15</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>6.5065</v>
+        <v>11.28</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>5.95595</v>
+        <v>8.4788</v>
       </c>
       <c r="S34" s="0" t="n">
-        <v>120.18916</v>
+        <v>157.92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0.89</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>1.99</v>
+        <v>0.86</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
@@ -2293,61 +2293,61 @@
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
-          <t>Northern</t>
+          <t>Southwest</t>
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0.46</v>
+        <v>0.31</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>1.84</v>
+        <v>28.8</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>1.9136</v>
+        <v>28.512</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>44.16</v>
+        <v>211.2</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>45.9264</v>
+        <v>209.088</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>47.38</v>
+        <v>180</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>2.2264</v>
+        <v>38.016</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>1.703104</v>
+        <v>25.37568</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>91.393536</v>
+        <v>144.48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1.95</v>
+        <v>0.23</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
@@ -2360,57 +2360,57 @@
         </is>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.85</v>
+        <v>1.09</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>34.51</v>
+        <v>10.95</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>29.3335</v>
+        <v>11.9355</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>168.49</v>
+        <v>208.05</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>143.2165</v>
+        <v>226.7745</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>243.6</v>
+        <v>175.2</v>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>40.0316</v>
+        <v>14.3445</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>26.98682</v>
+        <v>9.190335</v>
       </c>
       <c r="S36" s="0" t="n">
-        <v>279.272175</v>
+        <v>35.259</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>1.18</v>
+        <v>0.85</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
@@ -2423,54 +2423,54 @@
         </is>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.14</v>
+        <v>0.51</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>20.55</v>
+        <v>2.94</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>14.796</v>
+        <v>2.3226</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>116.45</v>
+        <v>11.06</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>83.844</v>
+        <v>8.7374</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>121.93</v>
+        <v>11.62</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>23.016</v>
+        <v>3.3222</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>14.20416</v>
+        <v>2.09034</v>
       </c>
       <c r="S37" s="0" t="n">
-        <v>98.93592</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.52</v>
+        <v>0.82</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2020</v>
@@ -2482,61 +2482,61 @@
       </c>
       <c r="G38" s="0" t="inlineStr">
         <is>
-          <t>Southwest</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>0.26</v>
+        <v>0.66</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>3.64</v>
+        <v>42.18</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>3.9312</v>
+        <v>42.6018</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>22.36</v>
+        <v>179.82</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>24.1488</v>
+        <v>181.6182</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>31.2</v>
+        <v>255.3</v>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>3.9676</v>
+        <v>53.5686</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>3.813264</v>
+        <v>35.785512</v>
       </c>
       <c r="S38" s="0" t="n">
-        <v>12.557376</v>
+        <v>127.428</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="B39" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D39" s="0" t="n">
         <v>0.72</v>
       </c>
-      <c r="C39" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0.63</v>
-      </c>
       <c r="E39" s="0" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
@@ -2549,250 +2549,250 @@
         </is>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.85</v>
+        <v>1.01</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>118</v>
+        <v>285</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>11.8</v>
+        <v>22.8</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>10.03</v>
+        <v>23.028</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>106.2</v>
+        <v>262.2</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>90.27</v>
+        <v>264.822</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>118</v>
+        <v>233.7</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>8.496</v>
+        <v>24.624</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>8.1243</v>
+        <v>20.49492</v>
       </c>
       <c r="S39" s="0" t="n">
-        <v>56.8701</v>
+        <v>143.64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>0.91</v>
+        <v>1.13</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Northern</t>
         </is>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.33</v>
+        <v>0.68</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.89</v>
+        <v>1.08</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>25.25</v>
+        <v>48.24</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>22.4725</v>
+        <v>52.0992</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>75.75</v>
+        <v>152.76</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>67.4175</v>
+        <v>164.9808</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>91.91</v>
+        <v>227.13</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>27.775</v>
+        <v>48.7224</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>20.449975</v>
+        <v>43.242336</v>
       </c>
       <c r="S40" s="0" t="n">
-        <v>20.899425</v>
+        <v>36.582</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>1.11</v>
+        <v>0.83</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1.45</v>
+        <v>0.46</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
-          <t>Southwest</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>35.4</v>
+        <v>16.17</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>37.524</v>
+        <v>13.5828</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>200.6</v>
+        <v>60.83</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>212.636</v>
+        <v>51.0972</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>261.96</v>
+        <v>63.91</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>48.852</v>
+        <v>18.1104</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>36.02304</v>
+        <v>12.632004</v>
       </c>
       <c r="S41" s="0" t="n">
-        <v>308.3222</v>
+        <v>24.794</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="B42" s="0" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C42" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="C42" s="0" t="n">
-        <v>0.88</v>
-      </c>
       <c r="D42" s="0" t="n">
-        <v>0.95</v>
+        <v>0.31</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G42" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Southwest</t>
         </is>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.22</v>
+        <v>0.07</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0.15</v>
+        <v>0.64</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>40.92</v>
+        <v>2.59</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>40.1016</v>
+        <v>2.3828</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>145.08</v>
+        <v>34.41</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>142.1784</v>
+        <v>31.6572</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>204.6</v>
+        <v>42.92</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>38.0556</v>
+        <v>3.0562</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>35.289408</v>
+        <v>2.216004</v>
       </c>
       <c r="S42" s="0" t="n">
-        <v>135.06948</v>
+        <v>8.029</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>2.2</v>
+        <v>1.17</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G43" s="0" t="inlineStr">
@@ -2801,187 +2801,187 @@
         </is>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>22.92</v>
+        <v>40.74</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>22.92</v>
+        <v>39.5178</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>168.08</v>
+        <v>153.26</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>168.08</v>
+        <v>148.6622</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>192.91</v>
+        <v>192.06</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>28.1916</v>
+        <v>44.814</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>19.2528</v>
+        <v>37.937088</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>369.776</v>
+        <v>158.886</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J44" s="0" t="n">
         <v>1.04</v>
       </c>
-      <c r="B44" s="0" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G44" s="0" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>0.89</v>
-      </c>
       <c r="K44" s="0" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>7.04</v>
+        <v>14</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>6.2656</v>
+        <v>14.56</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>56.96</v>
+        <v>86</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>50.6944</v>
+        <v>89.44</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>66.56</v>
+        <v>91</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>8.8704</v>
+        <v>10.22</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>5.01248</v>
+        <v>12.6672</v>
       </c>
       <c r="S44" s="0" t="n">
-        <v>74.520768</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
       <c r="B45" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C45" s="0" t="n">
         <v>0.87</v>
       </c>
-      <c r="C45" s="0" t="n">
-        <v>0.84</v>
-      </c>
       <c r="D45" s="0" t="n">
-        <v>2.12</v>
+        <v>1.15</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G45" s="0" t="inlineStr">
         <is>
-          <t>Southwest</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>19.04</v>
+        <v>30.78</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>20.7536</v>
+        <v>28.0098</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>99.96</v>
+        <v>140.22</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>108.9564</v>
+        <v>127.6002</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>102.34</v>
+        <v>138.51</v>
       </c>
       <c r="Q45" s="0" t="n">
-        <v>16.5648</v>
+        <v>33.858</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>17.433024</v>
+        <v>24.368526</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>230.987568</v>
+        <v>137.655</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G46" s="0" t="inlineStr">
@@ -2990,120 +2990,120 @@
         </is>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>1.06</v>
+        <v>0.73</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>39.61</v>
+        <v>3.6</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>41.9866</v>
+        <v>2.628</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>193.39</v>
+        <v>20.4</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>204.9934</v>
+        <v>14.892</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>242.32</v>
+        <v>24.24</v>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>42.7788</v>
+        <v>4.176</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>38.627672</v>
+        <v>2.02356</v>
       </c>
       <c r="S46" s="0" t="n">
-        <v>323.889572</v>
+        <v>19.824</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G47" s="0" t="inlineStr">
         <is>
-          <t>Southwest</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>24.48</v>
+        <v>25.76</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>24.48</v>
+        <v>22.9264</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>179.52</v>
+        <v>86.24</v>
       </c>
       <c r="O47" s="0" t="n">
-        <v>179.52</v>
+        <v>76.7536</v>
       </c>
       <c r="P47" s="0" t="n">
-        <v>238.68</v>
+        <v>132.16</v>
       </c>
       <c r="Q47" s="0" t="n">
-        <v>20.808</v>
+        <v>22.9264</v>
       </c>
       <c r="R47" s="0" t="n">
-        <v>20.5632</v>
+        <v>22.009344</v>
       </c>
       <c r="S47" s="0" t="n">
-        <v>125.664</v>
+        <v>68.992</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>1.16</v>
+        <v>0.84</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.68</v>
+        <v>0.37</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
@@ -3112,61 +3112,61 @@
       </c>
       <c r="G48" s="0" t="inlineStr">
         <is>
-          <t>Southwest</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>0.11</v>
+        <v>0.51</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>13.3</v>
+        <v>19.25</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>10.108</v>
+        <v>17.5175</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>252.7</v>
+        <v>57.75</v>
       </c>
       <c r="O48" s="0" t="n">
-        <v>192.052</v>
+        <v>52.5525</v>
       </c>
       <c r="P48" s="0" t="n">
-        <v>308.56</v>
+        <v>64.68</v>
       </c>
       <c r="Q48" s="0" t="n">
-        <v>16.093</v>
+        <v>20.02</v>
       </c>
       <c r="R48" s="0" t="n">
-        <v>9.40044</v>
+        <v>16.641625</v>
       </c>
       <c r="S48" s="0" t="n">
-        <v>130.59536</v>
+        <v>19.943</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1.35</v>
+        <v>0.98</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0.82</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.38</v>
+        <v>0.81</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
@@ -3179,61 +3179,61 @@
         </is>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>1.09</v>
+        <v>0.79</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>9.44</v>
+        <v>4.32</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>10.2896</v>
+        <v>3.4128</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>226.56</v>
+        <v>67.68</v>
       </c>
       <c r="O49" s="0" t="n">
-        <v>246.9504</v>
+        <v>53.4672</v>
       </c>
       <c r="P49" s="0" t="n">
-        <v>280.84</v>
+        <v>79.2</v>
       </c>
       <c r="Q49" s="0" t="n">
-        <v>12.744</v>
+        <v>4.2336</v>
       </c>
       <c r="R49" s="0" t="n">
-        <v>8.437472</v>
+        <v>2.798496</v>
       </c>
       <c r="S49" s="0" t="n">
-        <v>93.841152</v>
+        <v>40.824</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>1.02</v>
+        <v>0.8</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.83</v>
+        <v>1.34</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>1.58</v>
+        <v>0.93</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G50" s="0" t="inlineStr">
@@ -3242,117 +3242,117 @@
         </is>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>0.73</v>
+        <v>1.03</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>239</v>
+        <v>118</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>28.68</v>
+        <v>23.6</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>20.9364</v>
+        <v>24.308</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>210.32</v>
+        <v>94.4</v>
       </c>
       <c r="O50" s="0" t="n">
-        <v>153.5336</v>
+        <v>97.232</v>
       </c>
       <c r="P50" s="0" t="n">
-        <v>243.78</v>
+        <v>94.4</v>
       </c>
       <c r="Q50" s="0" t="n">
-        <v>23.8044</v>
+        <v>31.624</v>
       </c>
       <c r="R50" s="0" t="n">
-        <v>17.377212</v>
+        <v>23.57876</v>
       </c>
       <c r="S50" s="0" t="n">
-        <v>242.583088</v>
+        <v>76.818</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>0.92</v>
+        <v>1.03</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.7</v>
+        <v>1.02</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1.49</v>
+        <v>1.08</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G51" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Southwest</t>
         </is>
       </c>
       <c r="H51" s="0" t="n">
         <v>0.23</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>0.99</v>
+        <v>0.76</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>39.33</v>
+        <v>12.65</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>38.9367</v>
+        <v>9.614</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>131.67</v>
+        <v>42.35</v>
       </c>
       <c r="O51" s="0" t="n">
-        <v>130.3533</v>
+        <v>32.186</v>
       </c>
       <c r="P51" s="0" t="n">
-        <v>157.32</v>
+        <v>56.65</v>
       </c>
       <c r="Q51" s="0" t="n">
-        <v>27.531</v>
+        <v>12.903</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>37.379232</v>
+        <v>8.1719</v>
       </c>
       <c r="S51" s="0" t="n">
-        <v>194.226417</v>
+        <v>41.58</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1.38</v>
+        <v>0.6</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>2021</v>
@@ -3364,65 +3364,65 @@
       </c>
       <c r="G52" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Northern</t>
         </is>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>0.11</v>
+        <v>0.47</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>1.03</v>
+        <v>0.85</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>302</v>
+        <v>66</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>39.26</v>
+        <v>3.3</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>40.4378</v>
+        <v>2.805</v>
       </c>
       <c r="N52" s="0" t="n">
-        <v>262.74</v>
+        <v>62.7</v>
       </c>
       <c r="O52" s="0" t="n">
-        <v>270.6222</v>
+        <v>53.295</v>
       </c>
       <c r="P52" s="0" t="n">
-        <v>238.58</v>
+        <v>49.5</v>
       </c>
       <c r="Q52" s="0" t="n">
-        <v>26.3042</v>
+        <v>3.3</v>
       </c>
       <c r="R52" s="0" t="n">
-        <v>33.158996</v>
+        <v>2.5806</v>
       </c>
       <c r="S52" s="0" t="n">
-        <v>373.458636</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.96</v>
+        <v>1.23</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G53" s="0" t="inlineStr">
@@ -3431,183 +3431,183 @@
         </is>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>49.72</v>
+        <v>46.44</v>
       </c>
       <c r="M53" s="0" t="n">
-        <v>54.1948</v>
+        <v>49.6908</v>
       </c>
       <c r="N53" s="0" t="n">
-        <v>176.28</v>
+        <v>211.56</v>
       </c>
       <c r="O53" s="0" t="n">
-        <v>192.1452</v>
+        <v>226.3692</v>
       </c>
       <c r="P53" s="0" t="n">
-        <v>187.58</v>
+        <v>247.68</v>
       </c>
       <c r="Q53" s="0" t="n">
-        <v>47.7312</v>
+        <v>57.1212</v>
       </c>
       <c r="R53" s="0" t="n">
-        <v>42.813892</v>
+        <v>39.75264</v>
       </c>
       <c r="S53" s="0" t="n">
-        <v>211.35972</v>
+        <v>200.466</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>0.88</v>
+        <v>0.81</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>1.68</v>
+        <v>0.73</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G54" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>245</v>
+        <v>124</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>22.05</v>
+        <v>21.08</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>22.05</v>
+        <v>22.134</v>
       </c>
       <c r="N54" s="0" t="n">
-        <v>222.95</v>
+        <v>102.92</v>
       </c>
       <c r="O54" s="0" t="n">
-        <v>222.95</v>
+        <v>108.066</v>
       </c>
       <c r="P54" s="0" t="n">
-        <v>215.6</v>
+        <v>100.44</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>23.5935</v>
+        <v>20.6584</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>18.081</v>
+        <v>19.03524</v>
       </c>
       <c r="S54" s="0" t="n">
-        <v>374.556</v>
+        <v>63.364</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>1.06</v>
+        <v>0.9</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>1.17</v>
+        <v>0.69</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>1.7</v>
+        <v>0.46</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G55" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Northern</t>
         </is>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>23.56</v>
+        <v>19.32</v>
       </c>
       <c r="M55" s="0" t="n">
-        <v>26.1516</v>
+        <v>21.0588</v>
       </c>
       <c r="N55" s="0" t="n">
-        <v>100.44</v>
+        <v>118.68</v>
       </c>
       <c r="O55" s="0" t="n">
-        <v>111.4884</v>
+        <v>129.3612</v>
       </c>
       <c r="P55" s="0" t="n">
-        <v>131.44</v>
+        <v>124.2</v>
       </c>
       <c r="Q55" s="0" t="n">
-        <v>27.5652</v>
+        <v>13.3308</v>
       </c>
       <c r="R55" s="0" t="n">
-        <v>24.84402</v>
+        <v>20.637624</v>
       </c>
       <c r="S55" s="0" t="n">
-        <v>189.53028</v>
+        <v>44.436</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.96</v>
+        <v>1.29</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0.81</v>
+        <v>0.45</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
@@ -3616,58 +3616,58 @@
       </c>
       <c r="G56" s="0" t="inlineStr">
         <is>
-          <t>Southwest</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>0.21</v>
+        <v>0.56</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>23.8</v>
+        <v>7.4</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>18.802</v>
+        <v>5.698</v>
       </c>
       <c r="N56" s="0" t="n">
-        <v>116.2</v>
+        <v>66.6</v>
       </c>
       <c r="O56" s="0" t="n">
-        <v>91.798</v>
+        <v>51.282</v>
       </c>
       <c r="P56" s="0" t="n">
-        <v>163.8</v>
+        <v>82.14</v>
       </c>
       <c r="Q56" s="0" t="n">
-        <v>22.848</v>
+        <v>9.546</v>
       </c>
       <c r="R56" s="0" t="n">
-        <v>18.04992</v>
+        <v>4.33048</v>
       </c>
       <c r="S56" s="0" t="n">
-        <v>74.35638</v>
+        <v>23.31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>1.11</v>
+        <v>0.91</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>1.88</v>
+        <v>0.43</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>2020</v>
@@ -3683,61 +3683,61 @@
         </is>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="L57" s="0" t="n">
-        <v>34.58</v>
+        <v>25.74</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>30.0846</v>
+        <v>19.5624</v>
       </c>
       <c r="N57" s="0" t="n">
-        <v>147.42</v>
+        <v>91.26</v>
       </c>
       <c r="O57" s="0" t="n">
-        <v>128.2554</v>
+        <v>69.3576</v>
       </c>
       <c r="P57" s="0" t="n">
-        <v>202.02</v>
+        <v>106.47</v>
       </c>
       <c r="Q57" s="0" t="n">
-        <v>35.9632</v>
+        <v>23.166</v>
       </c>
       <c r="R57" s="0" t="n">
-        <v>23.766834</v>
+        <v>15.063048</v>
       </c>
       <c r="S57" s="0" t="n">
-        <v>241.120152</v>
+        <v>35.217</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>1.02</v>
+        <v>0.93</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.74</v>
+        <v>1.28</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>2.16</v>
+        <v>0.43</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G58" s="0" t="inlineStr">
@@ -3746,54 +3746,54 @@
         </is>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>12.75</v>
+        <v>62.04</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>10.8375</v>
+        <v>47.1504</v>
       </c>
       <c r="N58" s="0" t="n">
-        <v>62.25</v>
+        <v>219.96</v>
       </c>
       <c r="O58" s="0" t="n">
-        <v>52.9125</v>
+        <v>167.1696</v>
       </c>
       <c r="P58" s="0" t="n">
-        <v>76.5</v>
+        <v>262.26</v>
       </c>
       <c r="Q58" s="0" t="n">
-        <v>9.435</v>
+        <v>79.4112</v>
       </c>
       <c r="R58" s="0" t="n">
-        <v>9.428625</v>
+        <v>39.606336</v>
       </c>
       <c r="S58" s="0" t="n">
-        <v>114.291</v>
+        <v>84.882</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>0.89</v>
+        <v>1.04</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>1.21</v>
+        <v>0.65</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>0.94</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>1.55</v>
+        <v>0.58</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>2020</v>
@@ -3805,128 +3805,128 @@
       </c>
       <c r="G59" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Northern</t>
         </is>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L59" s="0" t="n">
-        <v>17.52</v>
+        <v>71.28</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>13.6656</v>
+        <v>64.8648</v>
       </c>
       <c r="N59" s="0" t="n">
-        <v>274.48</v>
+        <v>225.72</v>
       </c>
       <c r="O59" s="0" t="n">
-        <v>214.0944</v>
+        <v>205.4052</v>
       </c>
       <c r="P59" s="0" t="n">
-        <v>259.88</v>
+        <v>308.88</v>
       </c>
       <c r="Q59" s="0" t="n">
-        <v>21.1992</v>
+        <v>46.332</v>
       </c>
       <c r="R59" s="0" t="n">
-        <v>12.845664</v>
+        <v>60.972912</v>
       </c>
       <c r="S59" s="0" t="n">
-        <v>331.84632</v>
+        <v>120.582</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>1.92</v>
+        <v>0.58</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G60" s="0" t="inlineStr">
         <is>
-          <t>Northern</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="J60" s="0" t="n">
         <v>0.8</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>54.28</v>
+        <v>19.89</v>
       </c>
       <c r="M60" s="0" t="n">
-        <v>43.424</v>
+        <v>15.912</v>
       </c>
       <c r="N60" s="0" t="n">
-        <v>181.72</v>
+        <v>201.11</v>
       </c>
       <c r="O60" s="0" t="n">
-        <v>145.376</v>
+        <v>160.888</v>
       </c>
       <c r="P60" s="0" t="n">
-        <v>195.88</v>
+        <v>196.69</v>
       </c>
       <c r="Q60" s="0" t="n">
-        <v>53.1944</v>
+        <v>20.4867</v>
       </c>
       <c r="R60" s="0" t="n">
-        <v>33.87072</v>
+        <v>15.912</v>
       </c>
       <c r="S60" s="0" t="n">
-        <v>279.12192</v>
+        <v>89.726</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>0.94</v>
+        <v>0.82</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G61" s="0" t="inlineStr">
@@ -3935,61 +3935,61 @@
         </is>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.15</v>
+        <v>0.07</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>0.41</v>
+        <v>0.67</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>0.99</v>
+        <v>0.81</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>16.35</v>
+        <v>9.31</v>
       </c>
       <c r="M61" s="0" t="n">
-        <v>16.1865</v>
+        <v>7.5411</v>
       </c>
       <c r="N61" s="0" t="n">
-        <v>92.65</v>
+        <v>123.69</v>
       </c>
       <c r="O61" s="0" t="n">
-        <v>91.7235</v>
+        <v>100.1889</v>
       </c>
       <c r="P61" s="0" t="n">
-        <v>97.01</v>
+        <v>101.08</v>
       </c>
       <c r="Q61" s="0" t="n">
-        <v>22.563</v>
+        <v>10.3341</v>
       </c>
       <c r="R61" s="0" t="n">
-        <v>15.21531</v>
+        <v>6.183702</v>
       </c>
       <c r="S61" s="0" t="n">
-        <v>99.978615</v>
+        <v>95.893</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>1.07</v>
+        <v>0.75</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.68</v>
+        <v>1.06</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0.97</v>
+        <v>0.25</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G62" s="0" t="inlineStr">
@@ -3998,124 +3998,124 @@
         </is>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="L62" s="0" t="n">
-        <v>43.93</v>
+        <v>12.4</v>
       </c>
       <c r="M62" s="0" t="n">
-        <v>35.5833</v>
+        <v>11.408</v>
       </c>
       <c r="N62" s="0" t="n">
-        <v>147.07</v>
+        <v>235.6</v>
       </c>
       <c r="O62" s="0" t="n">
-        <v>119.1267</v>
+        <v>216.752</v>
       </c>
       <c r="P62" s="0" t="n">
-        <v>204.37</v>
+        <v>186</v>
       </c>
       <c r="Q62" s="0" t="n">
-        <v>29.8724</v>
+        <v>13.144</v>
       </c>
       <c r="R62" s="0" t="n">
-        <v>27.399141</v>
+        <v>9.6968</v>
       </c>
       <c r="S62" s="0" t="n">
-        <v>115.552899</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.93</v>
+        <v>1.35</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>0.92</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>2.11</v>
+        <v>1.07</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G63" s="0" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>Southwest</t>
         </is>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>0.15</v>
+        <v>0.57</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>4</v>
+        <v>59.4</v>
       </c>
       <c r="M63" s="0" t="n">
-        <v>3.36</v>
+        <v>42.174</v>
       </c>
       <c r="N63" s="0" t="n">
-        <v>76</v>
+        <v>210.6</v>
       </c>
       <c r="O63" s="0" t="n">
-        <v>63.84</v>
+        <v>149.526</v>
       </c>
       <c r="P63" s="0" t="n">
-        <v>96</v>
+        <v>291.6</v>
       </c>
       <c r="Q63" s="0" t="n">
-        <v>3.72</v>
+        <v>80.19</v>
       </c>
       <c r="R63" s="0" t="n">
-        <v>3.0912</v>
+        <v>38.80008</v>
       </c>
       <c r="S63" s="0" t="n">
-        <v>134.7024</v>
+        <v>202.23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>0.76</v>
+        <v>1.01</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.82</v>
+        <v>0.94</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0.34</v>
+        <v>0.61</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G64" s="0" t="inlineStr">
@@ -4124,187 +4124,187 @@
         </is>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>0.13</v>
+        <v>0.62</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>7.44</v>
+        <v>22.3</v>
       </c>
       <c r="M64" s="0" t="n">
-        <v>7.5144</v>
+        <v>21.185</v>
       </c>
       <c r="N64" s="0" t="n">
-        <v>23.56</v>
+        <v>200.7</v>
       </c>
       <c r="O64" s="0" t="n">
-        <v>23.7956</v>
+        <v>190.665</v>
       </c>
       <c r="P64" s="0" t="n">
-        <v>23.56</v>
+        <v>225.23</v>
       </c>
       <c r="Q64" s="0" t="n">
-        <v>6.1008</v>
+        <v>20.962</v>
       </c>
       <c r="R64" s="0" t="n">
-        <v>6.687816</v>
+        <v>20.7613</v>
       </c>
       <c r="S64" s="0" t="n">
-        <v>8.090504</v>
+        <v>95.221</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G65" s="0" t="inlineStr">
         <is>
-          <t>Southwest</t>
+          <t>Eastern</t>
         </is>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>0.91</v>
+        <v>1.07</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="L65" s="0" t="n">
-        <v>16.72</v>
+        <v>17.04</v>
       </c>
       <c r="M65" s="0" t="n">
-        <v>15.2152</v>
+        <v>18.2328</v>
       </c>
       <c r="N65" s="0" t="n">
-        <v>71.28</v>
+        <v>53.96</v>
       </c>
       <c r="O65" s="0" t="n">
-        <v>64.8648</v>
+        <v>57.7372</v>
       </c>
       <c r="P65" s="0" t="n">
-        <v>80.08</v>
+        <v>67.45</v>
       </c>
       <c r="Q65" s="0" t="n">
-        <v>12.54</v>
+        <v>11.076</v>
       </c>
       <c r="R65" s="0" t="n">
-        <v>14.150136</v>
+        <v>13.856928</v>
       </c>
       <c r="S65" s="0" t="n">
-        <v>125.837712</v>
+        <v>51.688</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G66" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Northern</t>
         </is>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>1.12</v>
+        <v>0.95</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="L66" s="0" t="n">
-        <v>8.16</v>
+        <v>13.59</v>
       </c>
       <c r="M66" s="0" t="n">
-        <v>9.1392</v>
+        <v>12.9105</v>
       </c>
       <c r="N66" s="0" t="n">
-        <v>59.84</v>
+        <v>137.41</v>
       </c>
       <c r="O66" s="0" t="n">
-        <v>67.0208</v>
+        <v>130.5395</v>
       </c>
       <c r="P66" s="0" t="n">
-        <v>67.32</v>
+        <v>123.82</v>
       </c>
       <c r="Q66" s="0" t="n">
-        <v>5.712</v>
+        <v>15.6285</v>
       </c>
       <c r="R66" s="0" t="n">
-        <v>8.408064</v>
+        <v>11.748555</v>
       </c>
       <c r="S66" s="0" t="n">
-        <v>41.552896</v>
+        <v>105.7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.78</v>
+        <v>1.16</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>1.77</v>
+        <v>1.02</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G67" s="0" t="inlineStr">
@@ -4313,103 +4313,103 @@
         </is>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>1.05</v>
+        <v>0.72</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>20.67</v>
+        <v>23.4</v>
       </c>
       <c r="M67" s="0" t="n">
-        <v>21.7035</v>
+        <v>16.848</v>
       </c>
       <c r="N67" s="0" t="n">
-        <v>138.33</v>
+        <v>171.6</v>
       </c>
       <c r="O67" s="0" t="n">
-        <v>145.2465</v>
+        <v>123.552</v>
       </c>
       <c r="P67" s="0" t="n">
-        <v>171.72</v>
+        <v>220.35</v>
       </c>
       <c r="Q67" s="0" t="n">
-        <v>16.1226</v>
+        <v>27.144</v>
       </c>
       <c r="R67" s="0" t="n">
-        <v>20.83536</v>
+        <v>12.80448</v>
       </c>
       <c r="S67" s="0" t="n">
-        <v>257.086305</v>
+        <v>139.23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G68" s="0" t="inlineStr">
         <is>
-          <t>Southwest</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>0.86</v>
+        <v>1.09</v>
       </c>
       <c r="K68" s="0" t="n">
-        <v>89</v>
+        <v>256</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>10.68</v>
+        <v>40.96</v>
       </c>
       <c r="M68" s="0" t="n">
-        <v>9.1848</v>
+        <v>44.6464</v>
       </c>
       <c r="N68" s="0" t="n">
-        <v>78.32</v>
+        <v>215.04</v>
       </c>
       <c r="O68" s="0" t="n">
-        <v>67.3552</v>
+        <v>234.3936</v>
       </c>
       <c r="P68" s="0" t="n">
-        <v>80.1</v>
+        <v>194.56</v>
       </c>
       <c r="Q68" s="0" t="n">
-        <v>13.0296</v>
+        <v>55.7056</v>
       </c>
       <c r="R68" s="0" t="n">
-        <v>8.450016</v>
+        <v>42.41408</v>
       </c>
       <c r="S68" s="0" t="n">
-        <v>40.41312</v>
+        <v>96.768</v>
       </c>
     </row>
     <row r="69">
@@ -4417,16 +4417,16 @@
         <v>0.76</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0.63</v>
+        <v>0.24</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
@@ -4435,184 +4435,184 @@
       </c>
       <c r="G69" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Southwest</t>
         </is>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>0.44</v>
+        <v>0.66</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>1.08</v>
+        <v>0.7</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="L69" s="0" t="n">
-        <v>46.88</v>
+        <v>12.78</v>
       </c>
       <c r="M69" s="0" t="n">
-        <v>50.6304</v>
+        <v>8.946</v>
       </c>
       <c r="N69" s="0" t="n">
-        <v>246.12</v>
+        <v>200.22</v>
       </c>
       <c r="O69" s="0" t="n">
-        <v>265.8096</v>
+        <v>140.154</v>
       </c>
       <c r="P69" s="0" t="n">
-        <v>222.68</v>
+        <v>161.88</v>
       </c>
       <c r="Q69" s="0" t="n">
-        <v>52.5056</v>
+        <v>16.4862</v>
       </c>
       <c r="R69" s="0" t="n">
-        <v>48.09888</v>
+        <v>8.946</v>
       </c>
       <c r="S69" s="0" t="n">
-        <v>167.460048</v>
+        <v>35.784</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>1.01</v>
+        <v>0.76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>1.01</v>
+        <v>0.76</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>0.96</v>
+        <v>0.81</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>2.05</v>
+        <v>1.09</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G70" s="0" t="inlineStr">
         <is>
-          <t>Southwest</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>0.4</v>
+        <v>0.58</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>0.79</v>
+        <v>1.04</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="L70" s="0" t="n">
-        <v>1.61</v>
+        <v>4.7</v>
       </c>
       <c r="M70" s="0" t="n">
-        <v>1.2719</v>
+        <v>4.888</v>
       </c>
       <c r="N70" s="0" t="n">
-        <v>21.39</v>
+        <v>89.3</v>
       </c>
       <c r="O70" s="0" t="n">
-        <v>16.8981</v>
+        <v>92.872</v>
       </c>
       <c r="P70" s="0" t="n">
-        <v>23.23</v>
+        <v>71.44</v>
       </c>
       <c r="Q70" s="0" t="n">
-        <v>1.6261</v>
+        <v>3.572</v>
       </c>
       <c r="R70" s="0" t="n">
-        <v>1.221024</v>
+        <v>3.95928</v>
       </c>
       <c r="S70" s="0" t="n">
-        <v>34.641105</v>
+        <v>71.722</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C71" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="B71" s="0" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>0.87</v>
-      </c>
       <c r="D71" s="0" t="n">
-        <v>1.3</v>
+        <v>0.29</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G71" s="0" t="inlineStr">
         <is>
-          <t>Northern</t>
+          <t>Southwest</t>
         </is>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="K71" s="0" t="n">
-        <v>133</v>
+        <v>280</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>22.61</v>
+        <v>58.8</v>
       </c>
       <c r="M71" s="0" t="n">
-        <v>20.1229</v>
+        <v>49.98</v>
       </c>
       <c r="N71" s="0" t="n">
-        <v>110.39</v>
+        <v>221.2</v>
       </c>
       <c r="O71" s="0" t="n">
-        <v>98.2471</v>
+        <v>188.02</v>
       </c>
       <c r="P71" s="0" t="n">
-        <v>106.4</v>
+        <v>333.2</v>
       </c>
       <c r="Q71" s="0" t="n">
-        <v>30.9757</v>
+        <v>78.792</v>
       </c>
       <c r="R71" s="0" t="n">
-        <v>17.506923</v>
+        <v>39.984</v>
       </c>
       <c r="S71" s="0" t="n">
-        <v>127.72123</v>
+        <v>56.84</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>1.14</v>
+        <v>0.84</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>1.32</v>
+        <v>0.45</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2020</v>
@@ -4624,44 +4624,44 @@
       </c>
       <c r="G72" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Northern</t>
         </is>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="L72" s="0" t="n">
-        <v>21.87</v>
+        <v>39.48</v>
       </c>
       <c r="M72" s="0" t="n">
-        <v>18.5895</v>
+        <v>39.48</v>
       </c>
       <c r="N72" s="0" t="n">
-        <v>221.13</v>
+        <v>148.52</v>
       </c>
       <c r="O72" s="0" t="n">
-        <v>187.9605</v>
+        <v>148.52</v>
       </c>
       <c r="P72" s="0" t="n">
-        <v>277.02</v>
+        <v>157.92</v>
       </c>
       <c r="Q72" s="0" t="n">
-        <v>19.2456</v>
+        <v>38.6904</v>
       </c>
       <c r="R72" s="0" t="n">
-        <v>14.12802</v>
+        <v>33.9528</v>
       </c>
       <c r="S72" s="0" t="n">
-        <v>248.10786</v>
+        <v>59.22</v>
       </c>
     </row>
     <row r="73">
@@ -4669,62 +4669,62 @@
         <v>1.2</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>0.78</v>
+        <v>0.94</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G73" s="0" t="inlineStr">
         <is>
-          <t>Northern</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>0.93</v>
+        <v>0.77</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="L73" s="0" t="n">
-        <v>36.55</v>
+        <v>41.58</v>
       </c>
       <c r="M73" s="0" t="n">
-        <v>33.9915</v>
+        <v>32.0166</v>
       </c>
       <c r="N73" s="0" t="n">
-        <v>178.45</v>
+        <v>189.42</v>
       </c>
       <c r="O73" s="0" t="n">
-        <v>165.9585</v>
+        <v>145.8534</v>
       </c>
       <c r="P73" s="0" t="n">
-        <v>258</v>
+        <v>277.2</v>
       </c>
       <c r="Q73" s="0" t="n">
-        <v>46.784</v>
+        <v>41.9958</v>
       </c>
       <c r="R73" s="0" t="n">
-        <v>26.51337</v>
+        <v>30.095604</v>
       </c>
       <c r="S73" s="0" t="n">
-        <v>142.72431</v>
+        <v>164.934</v>
       </c>
     </row>
     <row r="74">
@@ -4732,16 +4732,16 @@
         <v>0.81</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>1.33</v>
+        <v>1.06</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0.93</v>
+        <v>1.13</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
@@ -4754,61 +4754,61 @@
         </is>
       </c>
       <c r="H74" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I74" s="0" t="n">
         <v>0.19</v>
       </c>
-      <c r="I74" s="0" t="n">
-        <v>0.22</v>
-      </c>
       <c r="J74" s="0" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="L74" s="0" t="n">
-        <v>6.27</v>
+        <v>4.38</v>
       </c>
       <c r="M74" s="0" t="n">
-        <v>6.4581</v>
+        <v>4.8618</v>
       </c>
       <c r="N74" s="0" t="n">
-        <v>26.73</v>
+        <v>68.62</v>
       </c>
       <c r="O74" s="0" t="n">
-        <v>27.5319</v>
+        <v>76.1682</v>
       </c>
       <c r="P74" s="0" t="n">
-        <v>26.73</v>
+        <v>59.13</v>
       </c>
       <c r="Q74" s="0" t="n">
-        <v>8.3391</v>
+        <v>4.6428</v>
       </c>
       <c r="R74" s="0" t="n">
-        <v>6.199776</v>
+        <v>4.424238</v>
       </c>
       <c r="S74" s="0" t="n">
-        <v>25.604667</v>
+        <v>57.743</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>0.76</v>
+        <v>1.12</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G75" s="0" t="inlineStr">
@@ -4817,117 +4817,117 @@
         </is>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>1.08</v>
+        <v>0.79</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="L75" s="0" t="n">
-        <v>45.98</v>
+        <v>6.24</v>
       </c>
       <c r="M75" s="0" t="n">
-        <v>49.6584</v>
+        <v>4.9296</v>
       </c>
       <c r="N75" s="0" t="n">
-        <v>163.02</v>
+        <v>45.76</v>
       </c>
       <c r="O75" s="0" t="n">
-        <v>176.0616</v>
+        <v>36.1504</v>
       </c>
       <c r="P75" s="0" t="n">
-        <v>171.38</v>
+        <v>49.92</v>
       </c>
       <c r="Q75" s="0" t="n">
-        <v>30.3468</v>
+        <v>4.1808</v>
       </c>
       <c r="R75" s="0" t="n">
-        <v>43.202808</v>
+        <v>4.19016</v>
       </c>
       <c r="S75" s="0" t="n">
-        <v>133.806816</v>
+        <v>40.768</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>1.17</v>
+        <v>0.89</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>2.12</v>
+        <v>0.49</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G76" s="0" t="inlineStr">
         <is>
-          <t>Southeast</t>
+          <t>Southwest</t>
         </is>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="K76" s="0" t="n">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="L76" s="0" t="n">
-        <v>12.65</v>
+        <v>32</v>
       </c>
       <c r="M76" s="0" t="n">
-        <v>13.156</v>
+        <v>30.72</v>
       </c>
       <c r="N76" s="0" t="n">
-        <v>102.35</v>
+        <v>128</v>
       </c>
       <c r="O76" s="0" t="n">
-        <v>106.444</v>
+        <v>122.88</v>
       </c>
       <c r="P76" s="0" t="n">
-        <v>106.95</v>
+        <v>126.4</v>
       </c>
       <c r="Q76" s="0" t="n">
-        <v>14.8005</v>
+        <v>28.48</v>
       </c>
       <c r="R76" s="0" t="n">
-        <v>10.26168</v>
+        <v>23.3472</v>
       </c>
       <c r="S76" s="0" t="n">
-        <v>225.66128</v>
+        <v>54.88</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>1.33</v>
+        <v>0.68</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>1.21</v>
+        <v>0.6</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>2021</v>
@@ -4943,124 +4943,124 @@
         </is>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>1.09</v>
+        <v>0.86</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="L77" s="0" t="n">
-        <v>22.68</v>
+        <v>1.98</v>
       </c>
       <c r="M77" s="0" t="n">
-        <v>24.7212</v>
+        <v>1.7028</v>
       </c>
       <c r="N77" s="0" t="n">
-        <v>139.32</v>
+        <v>16.02</v>
       </c>
       <c r="O77" s="0" t="n">
-        <v>151.8588</v>
+        <v>13.7772</v>
       </c>
       <c r="P77" s="0" t="n">
-        <v>196.02</v>
+        <v>21.24</v>
       </c>
       <c r="Q77" s="0" t="n">
-        <v>30.1644</v>
+        <v>1.3464</v>
       </c>
       <c r="R77" s="0" t="n">
-        <v>21.01302</v>
+        <v>1.413324</v>
       </c>
       <c r="S77" s="0" t="n">
-        <v>183.749148</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>1.06</v>
+        <v>0.71</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G78" s="0" t="inlineStr">
         <is>
-          <t>Eastern</t>
+          <t>Southeast</t>
         </is>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>1.03</v>
+        <v>0.74</v>
       </c>
       <c r="K78" s="0" t="n">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="L78" s="0" t="n">
-        <v>3.2</v>
+        <v>18.56</v>
       </c>
       <c r="M78" s="0" t="n">
-        <v>3.296</v>
+        <v>13.7344</v>
       </c>
       <c r="N78" s="0" t="n">
-        <v>60.8</v>
+        <v>213.44</v>
       </c>
       <c r="O78" s="0" t="n">
-        <v>62.624</v>
+        <v>157.9456</v>
       </c>
       <c r="P78" s="0" t="n">
-        <v>70.4</v>
+        <v>236.64</v>
       </c>
       <c r="Q78" s="0" t="n">
-        <v>3.392</v>
+        <v>13.1776</v>
       </c>
       <c r="R78" s="0" t="n">
-        <v>2.57088</v>
+        <v>12.772992</v>
       </c>
       <c r="S78" s="0" t="n">
-        <v>80.78496</v>
+        <v>157.528</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>1.22</v>
+        <v>0.94</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G79" s="0" t="inlineStr">
@@ -5069,61 +5069,61 @@
         </is>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="K79" s="0" t="n">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="L79" s="0" t="n">
-        <v>22.56</v>
+        <v>4.4</v>
       </c>
       <c r="M79" s="0" t="n">
-        <v>18.2736</v>
+        <v>3.608</v>
       </c>
       <c r="N79" s="0" t="n">
-        <v>118.44</v>
+        <v>39.6</v>
       </c>
       <c r="O79" s="0" t="n">
-        <v>95.9364</v>
+        <v>32.472</v>
       </c>
       <c r="P79" s="0" t="n">
-        <v>141</v>
+        <v>35.2</v>
       </c>
       <c r="Q79" s="0" t="n">
-        <v>27.5232</v>
+        <v>4.136</v>
       </c>
       <c r="R79" s="0" t="n">
-        <v>16.994448</v>
+        <v>3.4276</v>
       </c>
       <c r="S79" s="0" t="n">
-        <v>131.432868</v>
+        <v>32.032</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>0.81</v>
+        <v>1.18</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>1.27</v>
+        <v>0.7</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>0.82</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0.26</v>
+        <v>1.08</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G80" s="0" t="inlineStr">
@@ -5132,57 +5132,57 @@
         </is>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
       <c r="K80" s="0" t="n">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="L80" s="0" t="n">
-        <v>24.38</v>
+        <v>34.16</v>
       </c>
       <c r="M80" s="0" t="n">
-        <v>18.285</v>
+        <v>27.6696</v>
       </c>
       <c r="N80" s="0" t="n">
-        <v>81.62</v>
+        <v>209.84</v>
       </c>
       <c r="O80" s="0" t="n">
-        <v>61.215</v>
+        <v>169.9704</v>
       </c>
       <c r="P80" s="0" t="n">
-        <v>85.86</v>
+        <v>287.92</v>
       </c>
       <c r="Q80" s="0" t="n">
-        <v>30.9626</v>
+        <v>23.912</v>
       </c>
       <c r="R80" s="0" t="n">
-        <v>14.9937</v>
+        <v>22.689072</v>
       </c>
       <c r="S80" s="0" t="n">
-        <v>15.9159</v>
+        <v>184.464</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>1.31</v>
+        <v>0.37</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
@@ -5195,670 +5195,40 @@
         </is>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="K81" s="0" t="n">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="L81" s="0" t="n">
-        <v>23.28</v>
+        <v>44</v>
       </c>
       <c r="M81" s="0" t="n">
-        <v>19.0896</v>
+        <v>32.56</v>
       </c>
       <c r="N81" s="0" t="n">
-        <v>170.72</v>
+        <v>132</v>
       </c>
       <c r="O81" s="0" t="n">
-        <v>139.9904</v>
+        <v>97.68</v>
       </c>
       <c r="P81" s="0" t="n">
-        <v>211.46</v>
+        <v>204.16</v>
       </c>
       <c r="Q81" s="0" t="n">
-        <v>27.2376</v>
+        <v>60.28</v>
       </c>
       <c r="R81" s="0" t="n">
-        <v>16.22616</v>
+        <v>25.0712</v>
       </c>
       <c r="S81" s="0" t="n">
-        <v>183.387424</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="B82" s="0" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E82" s="0" t="n">
-        <v>2022</v>
-      </c>
-      <c r="F82" s="0" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G82" s="0" t="inlineStr">
-        <is>
-          <t>Southwest</t>
-        </is>
-      </c>
-      <c r="H82" s="0" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="I82" s="0" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J82" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" s="0" t="n">
-        <v>275</v>
-      </c>
-      <c r="L82" s="0" t="n">
-        <v>57.75</v>
-      </c>
-      <c r="M82" s="0" t="n">
-        <v>57.75</v>
-      </c>
-      <c r="N82" s="0" t="n">
-        <v>217.25</v>
-      </c>
-      <c r="O82" s="0" t="n">
-        <v>217.25</v>
-      </c>
-      <c r="P82" s="0" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="Q82" s="0" t="n">
-        <v>36.96</v>
-      </c>
-      <c r="R82" s="0" t="n">
-        <v>54.8625</v>
-      </c>
-      <c r="S82" s="0" t="n">
-        <v>412.775</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="B83" s="0" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="E83" s="0" t="n">
-        <v>2022</v>
-      </c>
-      <c r="F83" s="0" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G83" s="0" t="inlineStr">
-        <is>
-          <t>Southeast</t>
-        </is>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I83" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J83" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K83" s="0" t="n">
-        <v>273</v>
-      </c>
-      <c r="L83" s="0" t="n">
-        <v>49.14</v>
-      </c>
-      <c r="M83" s="0" t="n">
-        <v>36.855</v>
-      </c>
-      <c r="N83" s="0" t="n">
-        <v>223.86</v>
-      </c>
-      <c r="O83" s="0" t="n">
-        <v>167.895</v>
-      </c>
-      <c r="P83" s="0" t="n">
-        <v>292.11</v>
-      </c>
-      <c r="Q83" s="0" t="n">
-        <v>59.4594</v>
-      </c>
-      <c r="R83" s="0" t="n">
-        <v>33.9066</v>
-      </c>
-      <c r="S83" s="0" t="n">
-        <v>179.64765</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="B84" s="0" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="D84" s="0" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E84" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F84" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G84" s="0" t="inlineStr">
-        <is>
-          <t>Southeast</t>
-        </is>
-      </c>
-      <c r="H84" s="0" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I84" s="0" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="J84" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K84" s="0" t="n">
-        <v>291</v>
-      </c>
-      <c r="L84" s="0" t="n">
-        <v>37.83</v>
-      </c>
-      <c r="M84" s="0" t="n">
-        <v>30.264</v>
-      </c>
-      <c r="N84" s="0" t="n">
-        <v>253.17</v>
-      </c>
-      <c r="O84" s="0" t="n">
-        <v>202.536</v>
-      </c>
-      <c r="P84" s="0" t="n">
-        <v>250.26</v>
-      </c>
-      <c r="Q84" s="0" t="n">
-        <v>27.9942</v>
-      </c>
-      <c r="R84" s="0" t="n">
-        <v>26.32968</v>
-      </c>
-      <c r="S84" s="0" t="n">
-        <v>204.56136</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B85" s="0" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="D85" s="0" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="E85" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F85" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G85" s="0" t="inlineStr">
-        <is>
-          <t>Southwest</t>
-        </is>
-      </c>
-      <c r="H85" s="0" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I85" s="0" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="J85" s="0" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="K85" s="0" t="n">
-        <v>187</v>
-      </c>
-      <c r="L85" s="0" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="M85" s="0" t="n">
-        <v>20.6635</v>
-      </c>
-      <c r="N85" s="0" t="n">
-        <v>162.69</v>
-      </c>
-      <c r="O85" s="0" t="n">
-        <v>138.2865</v>
-      </c>
-      <c r="P85" s="0" t="n">
-        <v>187</v>
-      </c>
-      <c r="Q85" s="0" t="n">
-        <v>20.9066</v>
-      </c>
-      <c r="R85" s="0" t="n">
-        <v>19.01042</v>
-      </c>
-      <c r="S85" s="0" t="n">
-        <v>175.623855</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="B86" s="0" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D86" s="0" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="E86" s="0" t="n">
-        <v>2022</v>
-      </c>
-      <c r="F86" s="0" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G86" s="0" t="inlineStr">
-        <is>
-          <t>Southeast</t>
-        </is>
-      </c>
-      <c r="H86" s="0" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I86" s="0" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J86" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K86" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="L86" s="0" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M86" s="0" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="N86" s="0" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="O86" s="0" t="n">
-        <v>51.66</v>
-      </c>
-      <c r="P86" s="0" t="n">
-        <v>75.6</v>
-      </c>
-      <c r="Q86" s="0" t="n">
-        <v>17.136</v>
-      </c>
-      <c r="R86" s="0" t="n">
-        <v>10.206</v>
-      </c>
-      <c r="S86" s="0" t="n">
-        <v>70.2576</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="B87" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="C87" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="D87" s="0" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E87" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F87" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G87" s="0" t="inlineStr">
-        <is>
-          <t>Southwest</t>
-        </is>
-      </c>
-      <c r="H87" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I87" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="J87" s="0" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K87" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="L87" s="0" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="M87" s="0" t="n">
-        <v>21.84</v>
-      </c>
-      <c r="N87" s="0" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="O87" s="0" t="n">
-        <v>87.36</v>
-      </c>
-      <c r="P87" s="0" t="n">
-        <v>92.56</v>
-      </c>
-      <c r="Q87" s="0" t="n">
-        <v>23.296</v>
-      </c>
-      <c r="R87" s="0" t="n">
-        <v>20.748</v>
-      </c>
-      <c r="S87" s="0" t="n">
-        <v>76.8768</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="B88" s="0" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="D88" s="0" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="E88" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F88" s="0" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G88" s="0" t="inlineStr">
-        <is>
-          <t>Southeast</t>
-        </is>
-      </c>
-      <c r="H88" s="0" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="I88" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J88" s="0" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K88" s="0" t="n">
-        <v>164</v>
-      </c>
-      <c r="L88" s="0" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M88" s="0" t="n">
-        <v>12.5132</v>
-      </c>
-      <c r="N88" s="0" t="n">
-        <v>152.52</v>
-      </c>
-      <c r="O88" s="0" t="n">
-        <v>166.2468</v>
-      </c>
-      <c r="P88" s="0" t="n">
-        <v>172.2</v>
-      </c>
-      <c r="Q88" s="0" t="n">
-        <v>16.072</v>
-      </c>
-      <c r="R88" s="0" t="n">
-        <v>11.762408</v>
-      </c>
-      <c r="S88" s="0" t="n">
-        <v>244.382796</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="B89" s="0" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="D89" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E89" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F89" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G89" s="0" t="inlineStr">
-        <is>
-          <t>Southeast</t>
-        </is>
-      </c>
-      <c r="H89" s="0" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I89" s="0" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="J89" s="0" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="K89" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="L89" s="0" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="M89" s="0" t="n">
-        <v>12.1968</v>
-      </c>
-      <c r="N89" s="0" t="n">
-        <v>49.14</v>
-      </c>
-      <c r="O89" s="0" t="n">
-        <v>43.2432</v>
-      </c>
-      <c r="P89" s="0" t="n">
-        <v>51.66</v>
-      </c>
-      <c r="Q89" s="0" t="n">
-        <v>16.9092</v>
-      </c>
-      <c r="R89" s="0" t="n">
-        <v>11.221056</v>
-      </c>
-      <c r="S89" s="0" t="n">
-        <v>56.21616</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="B90" s="0" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D90" s="0" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="E90" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F90" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G90" s="0" t="inlineStr">
-        <is>
-          <t>Southeast</t>
-        </is>
-      </c>
-      <c r="H90" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I90" s="0" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="J90" s="0" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="K90" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="L90" s="0" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="M90" s="0" t="n">
-        <v>4.047</v>
-      </c>
-      <c r="N90" s="0" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="O90" s="0" t="n">
-        <v>36.423</v>
-      </c>
-      <c r="P90" s="0" t="n">
-        <v>58.14</v>
-      </c>
-      <c r="Q90" s="0" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="R90" s="0" t="n">
-        <v>3.60183</v>
-      </c>
-      <c r="S90" s="0" t="n">
-        <v>59.00526</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B91" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="D91" s="0" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="E91" s="0" t="n">
-        <v>2022</v>
-      </c>
-      <c r="F91" s="0" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G91" s="0" t="inlineStr">
-        <is>
-          <t>Southwest</t>
-        </is>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I91" s="0" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="J91" s="0" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K91" s="0" t="n">
-        <v>106</v>
-      </c>
-      <c r="L91" s="0" t="n">
-        <v>25.44</v>
-      </c>
-      <c r="M91" s="0" t="n">
-        <v>18.3168</v>
-      </c>
-      <c r="N91" s="0" t="n">
-        <v>80.56</v>
-      </c>
-      <c r="O91" s="0" t="n">
-        <v>58.0032</v>
-      </c>
-      <c r="P91" s="0" t="n">
-        <v>84.8</v>
-      </c>
-      <c r="Q91" s="0" t="n">
-        <v>29.256</v>
-      </c>
-      <c r="R91" s="0" t="n">
-        <v>16.851456</v>
-      </c>
-      <c r="S91" s="0" t="n">
-        <v>66.123648</v>
+        <v>45.584</v>
       </c>
     </row>
   </sheetData>
